--- a/hotter/docs/20241227控制板温度计安装情况及控制运行方式.xlsx
+++ b/hotter/docs/20241227控制板温度计安装情况及控制运行方式.xlsx
@@ -938,7 +938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -964,9 +964,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1301,8 +1298,8 @@
   <sheetPr/>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1652,7 +1649,7 @@
       <c r="J9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>56</v>
       </c>
       <c r="L9" s="10" t="s">
@@ -1682,10 +1679,10 @@
       <c r="H10" s="1"/>
       <c r="I10" s="8"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1712,8 +1709,8 @@
       <c r="H11" s="1"/>
       <c r="I11" s="8"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="14"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2">
@@ -1738,8 +1735,8 @@
       <c r="H12" s="1"/>
       <c r="I12" s="8"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="14"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2">
@@ -1764,8 +1761,8 @@
       <c r="H13" s="1"/>
       <c r="I13" s="8"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="14"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2">
@@ -1790,8 +1787,8 @@
       <c r="H14" s="1"/>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="14"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7"/>

--- a/hotter/docs/20241227控制板温度计安装情况及控制运行方式.xlsx
+++ b/hotter/docs/20241227控制板温度计安装情况及控制运行方式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="13151" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1299,7 +1299,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1308,7 +1308,7 @@
     <col min="2" max="2" width="17.0740740740741" customWidth="1"/>
     <col min="3" max="3" width="17.212962962963" customWidth="1"/>
     <col min="4" max="4" width="10.8611111111111" customWidth="1"/>
-    <col min="5" max="5" width="9.00925925925926" customWidth="1"/>
+    <col min="5" max="5" width="9.00925925925926" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8.92592592592593" customWidth="1"/>
     <col min="7" max="7" width="7.06481481481481" customWidth="1"/>
     <col min="8" max="8" width="13.3518518518519" hidden="1" customWidth="1"/>

--- a/hotter/docs/20241227控制板温度计安装情况及控制运行方式.xlsx
+++ b/hotter/docs/20241227控制板温度计安装情况及控制运行方式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13151" windowHeight="8460"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
   <si>
     <t>已安装控制板站点</t>
   </si>
@@ -87,10 +87,10 @@
   </si>
   <si>
     <t>{
-  "Plan1": [1,19,5,30,1,16,00,5,1],
-   "Plan2": [1,15,16,01,1,5,29,5,1]
-   "Plan3": [1,15,5,30,6,18,00,7,1]
-   "Plan10": [1,15,18,01,6,5,29,7,1]
+  "Plan1": [1,19,5,30,1,15,00,5,1],
+   "Plan2": [1,15,15,01,1,5,29,5,1]
+   "Plan3": [1,15,5,30,6,15,00,7,1]
+   "Plan10": [1,15,15,01,6,5,29,7,1]
 }
 {
    "smartMode":
@@ -117,10 +117,10 @@
   </si>
   <si>
     <t>{
-  "Plan1": [1,19,5,30,1,16,00,5,1],
-   "Plan2": [1,15,16,01,1,5,29,5,1]
-   "Plan3": [1,15,5,30,6,18,00,7,1]
-   "Plan10": [1,15,18,01,6,5,29,7,1]
+  "Plan1": [1,19,5,30,1,15,00,5,1],
+   "Plan2": [1,15,15,01,1,5,29,5,1]
+   "Plan3": [1,15,5,30,6,15,00,7,1]
+   "Plan10": [1,15,15,01,6,5,29,7,1]
 }
 {
    "smartMode":
@@ -147,10 +147,10 @@
   </si>
   <si>
     <t>{
-  "Plan1": [1,18,5,30,1,17,00,5,1],
-   "Plan2": [1,15,17,01,1,5,29,5,1]
-   "Plan3": [1,18,5,30,6,17,00,7,1]
-   "Plan10": [1,15,17,01,6,5,29,7,1]
+  "Plan1": [1,18,5,30,1,16,00,5,1],
+   "Plan2": [1,15,16,01,1,5,29,5,1]
+   "Plan3": [1,18,5,30,6,16,00,7,1]
+   "Plan10": [1,15,16,01,6,5,29,7,1]
 }
 {
    "smartMode":
@@ -170,34 +170,23 @@
     <t>083a8d40fa92</t>
   </si>
   <si>
+    <t>杨士岗卫生院</t>
+  </si>
+  <si>
+    <t>864536074094523</t>
+  </si>
+  <si>
+    <t>083a8d40fa8e</t>
+  </si>
+  <si>
+    <t>室温，早上8点-下午5点维持17℃，其余时间14℃，不区分周末和节假日</t>
+  </si>
+  <si>
     <t>{
-  "Plan1": [1,18,5,30,1,18,00,5,1],
-   "Plan2": [1,15,18,01,1,5,29,5,1]
-   "Plan3": [1,18,5,30,6,18,00,7,1]
-   "Plan10": [1,15,18,01,6,5,29,7,1]
-}
-{
-   "smartMode":
- }</t>
-  </si>
-  <si>
-    <t>杨士岗卫生院</t>
-  </si>
-  <si>
-    <t>864536074094523</t>
-  </si>
-  <si>
-    <t>083a8d40fa8e</t>
-  </si>
-  <si>
-    <t>室温，早上8点-下午5点维持17℃，其余时间14℃，不区分周末和节假日</t>
-  </si>
-  <si>
-    <t>{
-  "Plan1": [1,17,5,30,1,17,00,5,1],
-   "Plan2": [1,14,17,01,1,5,29,5,1]
-   "Plan3": [1,17,5,30,6,17,00,7,1]
-   "Plan10": [1,14,17,01,6,5,29,7,1]
+  "Plan1": [1,17,5,30,1,16,00,5,1],
+   "Plan2": [1,14,16,01,1,5,29,5,1]
+   "Plan3": [1,17,5,30,6,16,00,7,1]
+   "Plan10": [1,14,16,01,6,5,29,7,1]
 }
 {
    "smartMode":
@@ -1298,8 +1287,8 @@
   <sheetPr/>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1504,7 +1493,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="138" spans="1:13">
@@ -1512,10 +1501,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -1530,7 +1519,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>24</v>
@@ -1539,13 +1528,13 @@
         <v>16</v>
       </c>
       <c r="K6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" ht="41.4" spans="1:12">
@@ -1553,10 +1542,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -1571,17 +1560,17 @@
         <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" ht="41.4" spans="1:12">
@@ -1589,10 +1578,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -1607,17 +1596,17 @@
         <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" ht="138" spans="1:12">
@@ -1625,10 +1614,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -1643,17 +1632,17 @@
         <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="L9" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1661,10 +1650,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -1680,10 +1669,10 @@
       <c r="I10" s="8"/>
       <c r="J10" s="1"/>
       <c r="K10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1691,10 +1680,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -1717,10 +1706,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -1743,10 +1732,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -1755,7 +1744,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1769,10 +1758,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -1825,12 +1814,12 @@
     </row>
     <row r="19" spans="9:9">
       <c r="I19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/hotter/docs/20241227控制板温度计安装情况及控制运行方式.xlsx
+++ b/hotter/docs/20241227控制板温度计安装情况及控制运行方式.xlsx
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/hotter/docs/20241227控制板温度计安装情况及控制运行方式.xlsx
+++ b/hotter/docs/20241227控制板温度计安装情况及控制运行方式.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
   <si>
     <t>已安装控制板站点</t>
   </si>
@@ -84,6 +84,36 @@
   </si>
   <si>
     <t>室温，早上8点-下午4点维持19℃，其余时间15℃，周末15℃，节假日15℃</t>
+  </si>
+  <si>
+    <t>{
+  "Plan1": [1,19,5,00,1,15,00,5,1],
+   "Plan2": [1,15,15,01,1,4,59,5,1]
+   "Plan3": [1,15,5,00,6,15,00,7,1]
+   "Plan10": [1,15,15,01,6,4,59,7,1]
+}
+{
+   "smartMode":
+ }</t>
+  </si>
+  <si>
+    <t>dev_pub_864536074095025
+dev_sub_ctrl_864536074095025</t>
+  </si>
+  <si>
+    <t>冷子堡农技站</t>
+  </si>
+  <si>
+    <t>864536074086917</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>083a8d40faa6</t>
+  </si>
+  <si>
+    <t>试验用</t>
   </si>
   <si>
     <t>{
@@ -97,79 +127,60 @@
  }</t>
   </si>
   <si>
-    <t>dev_pub_864536074095025
-dev_sub_ctrl_864536074095025</t>
-  </si>
-  <si>
-    <t>冷子堡农技站</t>
-  </si>
-  <si>
-    <t>864536074086917</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>083a8d40faa6</t>
-  </si>
-  <si>
-    <t>试验用</t>
+    <t>dev_pub_864536074086917
+dev_sub_ctrl_864536074086917</t>
+  </si>
+  <si>
+    <t>潘家堡卫生院</t>
+  </si>
+  <si>
+    <t>864536074082726</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>083a8d40fa82</t>
+  </si>
+  <si>
+    <t>室温，早上8点-下午5点维持18℃，其余时间15℃，不区分周末和节假日</t>
   </si>
   <si>
     <t>{
-  "Plan1": [1,19,5,30,1,15,00,5,1],
-   "Plan2": [1,15,15,01,1,5,29,5,1]
-   "Plan3": [1,15,5,30,6,15,00,7,1]
-   "Plan10": [1,15,15,01,6,5,29,7,1]
+  "Plan1": [1,18,5,00,1,16,00,5,1],
+   "Plan2": [1,15,16,01,1,4,59,5,1]
+   "Plan3": [1,18,5,20,6,16,00,7,1]
+   "Plan10": [1,15,16,01,6,4,59,7,1]
 }
 {
    "smartMode":
  }</t>
   </si>
   <si>
-    <t>dev_pub_864536074086917
-dev_sub_ctrl_864536074086917</t>
-  </si>
-  <si>
-    <t>潘家堡卫生院</t>
-  </si>
-  <si>
-    <t>864536074082726</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>083a8d40fa82</t>
-  </si>
-  <si>
-    <t>室温，早上8点-下午5点维持18℃，其余时间15℃，不区分周末和节假日</t>
+    <t>dev_pub_864536074082726
+dev_sub_ctrl_864536074082726</t>
+  </si>
+  <si>
+    <t>肖寨门卫生院</t>
+  </si>
+  <si>
+    <t>864536074085307</t>
+  </si>
+  <si>
+    <t>083a8d40fa92</t>
   </si>
   <si>
     <t>{
-  "Plan1": [1,18,5,30,1,16,00,5,1],
-   "Plan2": [1,15,16,01,1,5,29,5,1]
-   "Plan3": [1,18,5,30,6,16,00,7,1]
-   "Plan10": [1,15,16,01,6,5,29,7,1]
+  "Plan1": [1,18,5,00,1,16,00,5,1],
+   "Plan2": [1,15,16,01,1,4,59,5,1]
+   "Plan3": [1,18,5,00,6,16,00,7,1]
+   "Plan10": [1,15,16,01,6,4,59,7,1]
 }
 {
    "smartMode":
  }</t>
   </si>
   <si>
-    <t>dev_pub_864536074082726
-dev_sub_ctrl_864536074082726</t>
-  </si>
-  <si>
-    <t>肖寨门卫生院</t>
-  </si>
-  <si>
-    <t>864536074085307</t>
-  </si>
-  <si>
-    <t>083a8d40fa92</t>
-  </si>
-  <si>
     <t>杨士岗卫生院</t>
   </si>
   <si>
@@ -183,10 +194,10 @@
   </si>
   <si>
     <t>{
-  "Plan1": [1,17,5,30,1,16,00,5,1],
-   "Plan2": [1,14,16,01,1,5,29,5,1]
-   "Plan3": [1,17,5,30,6,16,00,7,1]
-   "Plan10": [1,14,16,01,6,5,29,7,1]
+  "Plan1": [1,18,5,30,1,16,00,5,1],
+   "Plan2": [1,18,16,01,1,5,29,5,1]
+   "Plan3": [1,18,5,30,6,16,00,7,1]
+   "Plan10": [1,18,16,01,6,5,29,7,1]
 }
 {
    "smartMode":
@@ -1287,8 +1298,8 @@
   <sheetPr/>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1493,7 +1504,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="138" spans="1:13">
@@ -1501,10 +1512,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -1519,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>24</v>
@@ -1528,13 +1539,13 @@
         <v>16</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" ht="41.4" spans="1:12">
@@ -1542,10 +1553,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -1560,17 +1571,17 @@
         <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="41.4" spans="1:12">
@@ -1578,10 +1589,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -1596,17 +1607,17 @@
         <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" ht="138" spans="1:12">
@@ -1614,10 +1625,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -1632,17 +1643,17 @@
         <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1650,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -1669,10 +1680,10 @@
       <c r="I10" s="8"/>
       <c r="J10" s="1"/>
       <c r="K10" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1680,10 +1691,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -1706,10 +1717,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -1732,10 +1743,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -1744,7 +1755,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1758,10 +1769,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -1814,12 +1825,12 @@
     </row>
     <row r="19" spans="9:9">
       <c r="I19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
